--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/118.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/118.xlsx
@@ -479,13 +479,13 @@
         <v>-8.619511522236698</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.50689290147567</v>
+        <v>-21.58533212764845</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01663253606518015</v>
+        <v>0.08569437765934972</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.818072037235682</v>
+        <v>-8.819137840732671</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.497314285368656</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.65382711385393</v>
+        <v>-21.72901515046021</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1415466615148571</v>
+        <v>-0.03840817265041933</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.299617304033687</v>
+        <v>-8.265061803498332</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.310204124296817</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.90110330316875</v>
+        <v>-21.97565576888234</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2847847847017312</v>
+        <v>-0.1845796999574424</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.187346150341853</v>
+        <v>-8.149715464487208</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.065896613021842</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.98520399929343</v>
+        <v>-22.0299677461669</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3048052678217479</v>
+        <v>-0.1907202925822876</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.72863019204669</v>
+        <v>-7.679544563102864</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.754615825291425</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.96143853691335</v>
+        <v>-21.99319752552083</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4426899284893502</v>
+        <v>-0.3210269926061717</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.987935873695341</v>
+        <v>-6.907360151521716</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.382069633163431</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.21164324134146</v>
+        <v>-22.24453159053519</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5390375868156431</v>
+        <v>-0.4296167241272196</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.403782666215743</v>
+        <v>-6.301494864546148</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.94673604114195</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.59125506852994</v>
+        <v>-22.62403097056573</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7130226741885454</v>
+        <v>-0.599402154601442</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.995760820123622</v>
+        <v>-5.896748653054861</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.446928801133311</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.83502583992118</v>
+        <v>-22.83543162749114</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.841461773589268</v>
+        <v>-0.7493822182577918</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.720939966120599</v>
+        <v>-5.614134722105975</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.887955251863177</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.31364494517155</v>
+        <v>-23.30944039926601</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9323679672726845</v>
+        <v>-0.8487561718347051</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.445713324547622</v>
+        <v>-5.353154646543188</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.282388273773922</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.7590334707475</v>
+        <v>-23.7470358478961</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.17349378594893</v>
+        <v>-1.093832308059418</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.126040721547521</v>
+        <v>-5.056880830408142</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.644373589939971</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23714900829059</v>
+        <v>-24.23839081603478</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.114771924470414</v>
+        <v>-1.043446203288992</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.961105185885279</v>
+        <v>-4.892057741903838</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.989561691987409</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.85261630475278</v>
+        <v>-24.85463546458881</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.042830188423761</v>
+        <v>-0.9776499488740508</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.859892965726405</v>
+        <v>-4.78575117658964</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.347390944252542</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.43717041079546</v>
+        <v>-25.44559416962716</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9393983591473082</v>
+        <v>-0.8626849523985457</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.742825696298127</v>
+        <v>-4.683776271359528</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.740576073333209</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.07944902091581</v>
+        <v>-26.09490317162213</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9108661150719926</v>
+        <v>-0.849792641290491</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.717246412370428</v>
+        <v>-4.640801900999345</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.187354126836991</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.83668284949793</v>
+        <v>-26.83401834075546</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8325393360571481</v>
+        <v>-0.773802807558032</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.627880255850089</v>
+        <v>-4.549372583581169</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.706916913006404</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.64202206114706</v>
+        <v>-27.6598522691907</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7342800760458915</v>
+        <v>-0.6845099861406974</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.656153382561459</v>
+        <v>-4.573710059764672</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.313022579586987</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.4788586995363</v>
+        <v>-28.47670020300455</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5875560909629071</v>
+        <v>-0.5466253254730951</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.855981760232873</v>
+        <v>-4.752144143386467</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.010605346899336</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.17362324287641</v>
+        <v>-29.17921626673216</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.309058703795964</v>
+        <v>-0.2694333031396183</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.086444654932377</v>
+        <v>-4.965842633539319</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.7972789639202184</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.59853660769372</v>
+        <v>-29.62408411307679</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1280872256102402</v>
+        <v>-0.09058854294100256</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.401536258498179</v>
+        <v>-5.271982465531799</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.6723483953128704</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.20878244482205</v>
+        <v>-30.25559468557276</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3185235516824403</v>
+        <v>0.3612632497130108</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.678620722680583</v>
+        <v>-5.548988705604333</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.6282629470318801</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.73908079715914</v>
+        <v>-30.77004532215075</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3356204086960419</v>
+        <v>0.3792352389557901</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.95286467387331</v>
+        <v>-5.811543041378266</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.6539407740367765</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.10010706474305</v>
+        <v>-31.12756861631451</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6125484246587053</v>
+        <v>0.6450798763511574</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.257987592437472</v>
+        <v>-6.110046244644626</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.7394062896777633</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.3079460801659</v>
+        <v>-31.34232557645404</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8241739758999858</v>
+        <v>0.8724138066558356</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.47613018983235</v>
+        <v>-6.322282921744271</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.8758081911993616</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.59611147841217</v>
+        <v>-31.617681776709</v>
       </c>
       <c r="F25" t="n">
-        <v>1.043998391657083</v>
+        <v>1.093025352518506</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.506745150832971</v>
+        <v>-6.370845426953337</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.0558447350323</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.49252564541941</v>
+        <v>-31.50315434634808</v>
       </c>
       <c r="F26" t="n">
-        <v>1.08450870255634</v>
+        <v>1.147620892201345</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.628246749489541</v>
+        <v>-6.485473081955025</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.272130441517295</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.57910262352217</v>
+        <v>-31.5830064955054</v>
       </c>
       <c r="F27" t="n">
-        <v>1.333051144649695</v>
+        <v>1.374901043430487</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.917778625155112</v>
+        <v>-6.790791560793863</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.517469857536076</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.40766715323036</v>
+        <v>-31.42081124819206</v>
       </c>
       <c r="F28" t="n">
-        <v>1.476401714994508</v>
+        <v>1.523067285539211</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.050901393134339</v>
+        <v>-6.901517788315753</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.789294730459441</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.21714744463355</v>
+        <v>-31.23347917207249</v>
       </c>
       <c r="F29" t="n">
-        <v>1.503829043517901</v>
+        <v>1.542095300265244</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.33021035544119</v>
+        <v>-7.184874848308409</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.08531138457675</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.07446177922264</v>
+        <v>-31.06923543088191</v>
       </c>
       <c r="F30" t="n">
-        <v>1.610741845683597</v>
+        <v>1.646573377011217</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.359153276093327</v>
+        <v>-7.237954795862505</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.402245707548044</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.80746578071012</v>
+        <v>-30.79128316798063</v>
       </c>
       <c r="F31" t="n">
-        <v>1.558537030358679</v>
+        <v>1.611088965171148</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.352382001582649</v>
+        <v>-7.238424140521729</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.739839394088146</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.408811271775</v>
+        <v>-30.40207666481583</v>
       </c>
       <c r="F32" t="n">
-        <v>1.510179863438024</v>
+        <v>1.558116575768125</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.377873283386744</v>
+        <v>-7.293181017431176</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.098639928620468</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.90427798562655</v>
+        <v>-29.88438461668507</v>
       </c>
       <c r="F33" t="n">
-        <v>1.485069924169548</v>
+        <v>1.543077990645494</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.639185811416481</v>
+        <v>-7.56383154857672</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.475291193931608</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.29972050798788</v>
+        <v>-29.25226780733761</v>
       </c>
       <c r="F34" t="n">
-        <v>1.480004913055424</v>
+        <v>1.553120010750138</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.620465804123064</v>
+        <v>-7.537269574268772</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.861157299862802</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.85200481514328</v>
+        <v>-28.81333277082598</v>
       </c>
       <c r="F35" t="n">
-        <v>1.503829043517901</v>
+        <v>1.576944141212614</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.636584859763282</v>
+        <v>-7.571096612780956</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.252113480405443</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.22664461328589</v>
+        <v>-28.17495069917856</v>
       </c>
       <c r="F36" t="n">
-        <v>1.406845814298909</v>
+        <v>1.463362733680446</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.532204563154648</v>
+        <v>-7.4951507801103</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.639380468629978</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.56434796454895</v>
+        <v>-27.49715834317694</v>
       </c>
       <c r="F37" t="n">
-        <v>1.521282798032787</v>
+        <v>1.586370146452026</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.45873256795865</v>
+        <v>-7.422891258617296</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.009628062461622</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.03583165521485</v>
+        <v>-26.99594713719456</v>
       </c>
       <c r="F38" t="n">
-        <v>1.386170204258726</v>
+        <v>1.445439634506336</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.428542950555451</v>
+        <v>-7.385505023105998</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.353295009912092</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.29122613136997</v>
+        <v>-26.25485680928698</v>
       </c>
       <c r="F39" t="n">
-        <v>1.438384797597378</v>
+        <v>1.495845295304229</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.406630421777938</v>
+        <v>-7.393752777690484</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.662275326079947</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.63006128772272</v>
+        <v>-25.59608757900453</v>
       </c>
       <c r="F40" t="n">
-        <v>1.472128722992825</v>
+        <v>1.556273420179298</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.111055733624861</v>
+        <v>-7.097131842067887</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.927184241505581</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.08439434229948</v>
+        <v>-25.06819706254939</v>
       </c>
       <c r="F41" t="n">
-        <v>1.49809423846301</v>
+        <v>1.562018003247923</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.141387132227201</v>
+        <v>-7.144687211862369</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.139826587115502</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.37380163922773</v>
+        <v>-24.34556762457129</v>
       </c>
       <c r="F42" t="n">
-        <v>1.509016279803698</v>
+        <v>1.585499903229715</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.870291701456767</v>
+        <v>-6.861843497590738</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.299514725638101</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.67087489892329</v>
+        <v>-23.65304469087966</v>
       </c>
       <c r="F43" t="n">
-        <v>1.45956886435172</v>
+        <v>1.530117233441303</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.865930707331479</v>
+        <v>-6.874662473595789</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.405283806263885</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.98285962956296</v>
+        <v>-22.95319802490138</v>
       </c>
       <c r="F44" t="n">
-        <v>1.574196519353408</v>
+        <v>1.640159000001824</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.77104975106526</v>
+        <v>-6.760704612534869</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.458276615372448</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.16821419334265</v>
+        <v>-22.14639455569561</v>
       </c>
       <c r="F45" t="n">
-        <v>1.623898163162465</v>
+        <v>1.682194681043559</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.658925267579433</v>
+        <v>-6.675298551576732</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.466868962826019</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.65859878455604</v>
+        <v>-21.63935565352786</v>
       </c>
       <c r="F46" t="n">
-        <v>1.629535188080018</v>
+        <v>1.69075044306066</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.520703265438014</v>
+        <v>-6.507087381313656</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.442004068879611</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.99800595471222</v>
+        <v>-20.98091398670549</v>
       </c>
       <c r="F47" t="n">
-        <v>1.701056469536117</v>
+        <v>1.762550397908173</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.493359050031358</v>
+        <v>-6.488113145663159</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.393775656170599</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.35874875083563</v>
+        <v>-20.34780715346747</v>
       </c>
       <c r="F48" t="n">
-        <v>1.737054227097212</v>
+        <v>1.796387214434092</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.462880981223011</v>
+        <v>-6.45118647679735</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.333726412339906</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.61776109207226</v>
+        <v>-19.6105302509161</v>
       </c>
       <c r="F49" t="n">
-        <v>1.888339655587028</v>
+        <v>1.948386437926477</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.199231507910889</v>
+        <v>-6.162275505003878</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.275608139938869</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.23388116188897</v>
+        <v>-19.23051263615766</v>
       </c>
       <c r="F50" t="n">
-        <v>1.904287595986905</v>
+        <v>1.948137098576265</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.189414382122123</v>
+        <v>-6.148517839680379</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.226892797428171</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.6463545396712</v>
+        <v>-18.64748878926432</v>
       </c>
       <c r="F51" t="n">
-        <v>1.867644489519377</v>
+        <v>1.920308871489785</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.22597926447978</v>
+        <v>-6.179602145340224</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.19324115901274</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.11729555057486</v>
+        <v>-18.09033756671069</v>
       </c>
       <c r="F52" t="n">
-        <v>1.892690871698582</v>
+        <v>1.955519498945306</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.246077971709667</v>
+        <v>-6.199964858940925</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.181611608384523</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.73057021839502</v>
+        <v>-17.7313133474388</v>
       </c>
       <c r="F53" t="n">
-        <v>1.986584248577684</v>
+        <v>2.042509598128324</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.147750265602274</v>
+        <v>-6.090231099813019</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.195269184315489</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.11408600850452</v>
+        <v>-17.13095308219537</v>
       </c>
       <c r="F54" t="n">
-        <v>2.045839011804693</v>
+        <v>2.101607913135592</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.132980575857323</v>
+        <v>-6.079211278334993</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.233803337916944</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.86305995092277</v>
+        <v>-16.87986346752436</v>
       </c>
       <c r="F55" t="n">
-        <v>1.99785829841279</v>
+        <v>2.042333593881115</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.363111018089877</v>
+        <v>-6.305679854424227</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.29783032326395</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.31896237670381</v>
+        <v>-16.35951668866486</v>
       </c>
       <c r="F56" t="n">
-        <v>2.028033248795389</v>
+        <v>2.081567873988107</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.230310924563867</v>
+        <v>-6.162935520930912</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.389489281932315</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.22108934823503</v>
+        <v>-16.26730513014798</v>
       </c>
       <c r="F57" t="n">
-        <v>2.070538274496347</v>
+        <v>2.107430720314087</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.384559091215033</v>
+        <v>-6.317408581897956</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.505345246983262</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.96353646648596</v>
+        <v>-16.00013068288481</v>
       </c>
       <c r="F58" t="n">
-        <v>1.941224042866447</v>
+        <v>1.986833587927896</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.549827079344226</v>
+        <v>-6.495925778636488</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.641795386161573</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.69120900598506</v>
+        <v>-15.72072394044062</v>
       </c>
       <c r="F59" t="n">
-        <v>2.005113584603291</v>
+        <v>2.05096269100122</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.34957335807539</v>
+        <v>-6.298502792343596</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.799555802078167</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.42701685291071</v>
+        <v>-15.43818823360161</v>
       </c>
       <c r="F60" t="n">
-        <v>2.073105003101478</v>
+        <v>2.099578975285822</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.380129650993609</v>
+        <v>-6.309371054608748</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.977054855591314</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.27501762941832</v>
+        <v>-15.28624767819163</v>
       </c>
       <c r="F61" t="n">
-        <v>2.009890144312267</v>
+        <v>2.041336236480264</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.22998825011065</v>
+        <v>-6.159997227803895</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.169659984221036</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.2200065241518</v>
+        <v>-15.23296728135599</v>
       </c>
       <c r="F62" t="n">
-        <v>2.034344956660576</v>
+        <v>2.083621256872212</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.31407427921472</v>
+        <v>-6.244577046601524</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.373553454585918</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.12432865976627</v>
+        <v>-15.1274576241611</v>
       </c>
       <c r="F63" t="n">
-        <v>1.998107637763002</v>
+        <v>2.047828837599527</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.37871672800907</v>
+        <v>-6.302951788592489</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.587945103004132</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.17507655104485</v>
+        <v>-15.19858289606097</v>
       </c>
       <c r="F64" t="n">
-        <v>1.849374270857716</v>
+        <v>1.892998879131198</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.366103090292429</v>
+        <v>-6.29535916092817</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.805842106197041</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.17710548889462</v>
+        <v>-15.1899635769546</v>
       </c>
       <c r="F65" t="n">
-        <v>1.854742400397588</v>
+        <v>1.913967829583396</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.459595568608444</v>
+        <v>-6.375191754058024</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.019063029931871</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.17253915648092</v>
+        <v>-15.17132668277792</v>
       </c>
       <c r="F66" t="n">
-        <v>1.907059662880445</v>
+        <v>1.951696295575379</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.374893524639142</v>
+        <v>-6.267687382061431</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.224314845884425</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.03578874540644</v>
+        <v>-15.03051350699704</v>
       </c>
       <c r="F67" t="n">
-        <v>1.716764848599515</v>
+        <v>1.762917073423192</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.17471313847331</v>
+        <v>-6.087635037166687</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.41475223740426</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.14064327568117</v>
+        <v>-15.12697850148814</v>
       </c>
       <c r="F68" t="n">
-        <v>1.683094258307071</v>
+        <v>1.722010752967714</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.296170736068078</v>
+        <v>-6.20097199435551</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.581591610583128</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.04163599761927</v>
+        <v>-15.01432111625382</v>
       </c>
       <c r="F69" t="n">
-        <v>1.675222957251338</v>
+        <v>1.732057662079225</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.066592751611486</v>
+        <v>-5.936794508301761</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.718980479690337</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.0783524391898</v>
+        <v>-15.06216004844658</v>
       </c>
       <c r="F70" t="n">
-        <v>1.552459994823104</v>
+        <v>1.585915468813403</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.044460217524962</v>
+        <v>-5.923036842978262</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.824690884597768</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.09231055379484</v>
+        <v>-15.08866824367899</v>
       </c>
       <c r="F71" t="n">
-        <v>1.455545211700249</v>
+        <v>1.497023545959155</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.011390975077149</v>
+        <v>-5.857797935346149</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.892125330038658</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.20222031716996</v>
+        <v>-15.19865134215711</v>
       </c>
       <c r="F72" t="n">
-        <v>1.372339203832224</v>
+        <v>1.406787146216506</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.867844844457659</v>
+        <v>-5.709260128715539</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.917717151402101</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.32438193175356</v>
+        <v>-15.32250455311667</v>
       </c>
       <c r="F73" t="n">
-        <v>1.293078624505798</v>
+        <v>1.328655927476339</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.017678237908002</v>
+        <v>-5.864383427595883</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.903266645072511</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.464256418216</v>
+        <v>-15.46828007086747</v>
       </c>
       <c r="F74" t="n">
-        <v>1.178441191490377</v>
+        <v>1.225214320186152</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.91931630875254</v>
+        <v>-5.754815894701452</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.847606327875056</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.69031920673528</v>
+        <v>-15.68167544259457</v>
       </c>
       <c r="F75" t="n">
-        <v>1.098496151202583</v>
+        <v>1.126735054865884</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.950092606979769</v>
+        <v>-5.779476045338171</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.750158426504177</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.7142704513763</v>
+        <v>-15.71080903451452</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9150801695834022</v>
+        <v>0.9492152155282024</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.057147190344606</v>
+        <v>-5.881274946321074</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.614408704405703</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.78717532177573</v>
+        <v>-15.77839955444962</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7538798351674826</v>
+        <v>0.7869392996015615</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.973906959428512</v>
+        <v>-5.799736089794667</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.445115307770442</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.94082214058227</v>
+        <v>-15.9361922510793</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7688841972420446</v>
+        <v>0.8037868172649504</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.951520196984909</v>
+        <v>-5.776337302929612</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.242452808649794</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.04925053487671</v>
+        <v>-16.04105167036089</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4896534590450642</v>
+        <v>0.5312637964893774</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.97077310602682</v>
+        <v>-5.801647691479631</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.012273493597876</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.5484963600986</v>
+        <v>-16.542125984151</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4746930980323045</v>
+        <v>0.5096152740826779</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.907675583402415</v>
+        <v>-5.746885925563316</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.763229020514519</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.06175407900106</v>
+        <v>-17.06905336625336</v>
       </c>
       <c r="F81" t="n">
-        <v>0.304917445571816</v>
+        <v>0.3543990840718622</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.978595517013884</v>
+        <v>-5.802816164120824</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.500709693382762</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.48389537692483</v>
+        <v>-17.48310335781239</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.01055061152273795</v>
+        <v>0.02716318744864396</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.01619197982046</v>
+        <v>-5.842378007687899</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.231590765790044</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.99138406772434</v>
+        <v>-17.98867555792006</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.01587962900767524</v>
+        <v>0.02994014334905165</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.040539234017696</v>
+        <v>-5.858374838156445</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.966697686095277</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.78475743506669</v>
+        <v>-18.82155210074709</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1070644960825059</v>
+        <v>-0.05513346514213536</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.037366268561068</v>
+        <v>-5.86614835907484</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.716579489355222</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.46208044640909</v>
+        <v>-19.46842637732234</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.275945460286349</v>
+        <v>-0.228463425594871</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.127231103781832</v>
+        <v>-5.956365202790021</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.486930422372595</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.13689050822189</v>
+        <v>-20.15369402482348</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.3996177779918295</v>
+        <v>-0.3449977932746557</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.35529349610968</v>
+        <v>-6.165120907000422</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.287681688104171</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.88036667148052</v>
+        <v>-20.87837684568568</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4986055000262565</v>
+        <v>-0.4583103054291435</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.690694034200646</v>
+        <v>-6.51223061653765</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.130692095735212</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.70860354679084</v>
+        <v>-21.70603681818571</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6184252803206081</v>
+        <v>-0.5744339965321074</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.940947628697422</v>
+        <v>-6.76276288442584</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.022194419812733</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.7015412854338</v>
+        <v>-22.69022812354376</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8443413986338809</v>
+        <v>-0.7907481053587592</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.981873505180367</v>
+        <v>-6.78594655498875</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.967527288534851</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.77946951945121</v>
+        <v>-23.76529628854402</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.113339445458408</v>
+        <v>-1.069558388965185</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.374030523989349</v>
+        <v>-7.195371546051676</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.97264719752511</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.01397308738844</v>
+        <v>-25.00817961425114</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.079404848795152</v>
+        <v>-1.054466024767018</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.729808442701616</v>
+        <v>-7.543048380385465</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.042091310155008</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.25779999142087</v>
+        <v>-26.2262903421636</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.306978340436309</v>
+        <v>-1.282660420280274</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.046816536959248</v>
+        <v>-7.864334355651648</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.17223842521959</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.54275811022466</v>
+        <v>-27.51529411414976</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.568667321994798</v>
+        <v>-1.541362218643078</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.375509357628808</v>
+        <v>-8.210446707788025</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.357243077179001</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.03257539476591</v>
+        <v>-29.00351024894211</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.8509536894836</v>
+        <v>-1.838051600361812</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.708563172423654</v>
+        <v>-8.536435907660181</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.592874988637737</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.6391861643509</v>
+        <v>-30.59890074776753</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.126796345921809</v>
+        <v>-2.12801370863167</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.026417064869262</v>
+        <v>-8.861711312529765</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.866934023629804</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.46557734863119</v>
+        <v>-32.40355540751751</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.171022302039921</v>
+        <v>-2.184711521267283</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.393640148656978</v>
+        <v>-9.231349565709737</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.162307134901615</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.17290899318493</v>
+        <v>-34.09370952644434</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.534715522869724</v>
+        <v>-2.562167296427452</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.805098966576541</v>
+        <v>-9.662760420653179</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.464824022190753</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.16059095850817</v>
+        <v>-36.07707449870409</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.926021854483863</v>
+        <v>-2.949298416177245</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.26740834491888</v>
+        <v>-10.10603689526262</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.75672080291691</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.22469054566472</v>
+        <v>-38.13460326063151</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.192942073389951</v>
+        <v>-3.22132764725926</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.63540878079844</v>
+        <v>-10.48667052488629</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.022483672517639</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.42479741485199</v>
+        <v>-40.32238249900385</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.558248666485836</v>
+        <v>-3.590457443725072</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.78996006587536</v>
+        <v>-10.63136068311263</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.236844015429272</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.33111897239947</v>
+        <v>-42.21662332058318</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.012041394866015</v>
+        <v>-4.037987354308733</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.07293578333239</v>
+        <v>-10.9189125109971</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.401198600063147</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.55521130927581</v>
+        <v>-44.43263901811539</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.237796175952679</v>
+        <v>-4.257102864070126</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.21839351563685</v>
+        <v>-11.07950660856153</v>
       </c>
     </row>
   </sheetData>
